--- a/apps/static/3月数据/month_flow_data.xlsx
+++ b/apps/static/3月数据/month_flow_data.xlsx
@@ -10,9 +10,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pv_day_data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pv_week_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pv_hour_data" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uv_day_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uv_week_data" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uv_hour_data" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pv_type_data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uv_day_data" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uv_week_data" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uv_hour_data" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="uv_type_data" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1033,6 +1035,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13408561</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1002293</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>202514</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>390743</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1306,7 +1371,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1407,7 +1472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1628,4 +1693,67 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>num</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>288553</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>402541</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10428</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>